--- a/documents/examples/examples.xlsx
+++ b/documents/examples/examples.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lilyzhao/Documents/Employment/ESSP/essp4rvs.github.io/documents/examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB77ADA-D9D2-7241-956C-0542CF1D1F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D861B4-B017-A94B-AEA2-989B5FFBA234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" activeTab="3" xr2:uid="{872DD5B9-4F02-454D-8F4D-321DD25991F2}"/>
   </bookViews>
@@ -146,10 +146,10 @@
     <t>K [m/s]</t>
   </si>
   <si>
-    <t>t0 [vmjd]</t>
-  </si>
-  <si>
     <t>w [deg]</t>
+  </si>
+  <si>
+    <t>t0 [eMJD]</t>
   </si>
 </sst>
 </file>
@@ -744,7 +744,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -757,13 +757,13 @@
         <v>33</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -785,5 +785,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/documents/examples/examples.xlsx
+++ b/documents/examples/examples.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lilyzhao/Documents/Employment/ESSP/essp4rvs.github.io/documents/examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D861B4-B017-A94B-AEA2-989B5FFBA234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC0F36A0-D0A4-EE41-BE6D-83D12439267E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" activeTab="3" xr2:uid="{872DD5B9-4F02-454D-8F4D-321DD25991F2}"/>
+    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{872DD5B9-4F02-454D-8F4D-321DD25991F2}"/>
   </bookViews>
   <sheets>
     <sheet name="members" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
   <si>
     <t>Name</t>
   </si>
@@ -150,6 +150,9 @@
   </si>
   <si>
     <t>t0 [eMJD]</t>
+  </si>
+  <si>
+    <t>Citaiton</t>
   </si>
 </sst>
 </file>
@@ -596,15 +599,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F122185E-DBE9-B545-AC62-DCA1C2CED907}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -626,8 +629,11 @@
       <c r="G1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -650,7 +656,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
@@ -743,7 +749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8224EB7-259D-3743-BB38-0BAB37A256E5}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
